--- a/Data y gráficos/Gráficos de Tesis/IRF mix.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/IRF mix.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{E18F894E-4E9A-4E70-8A73-ADFE7E48EB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADED4B23-A6BC-4CB3-AC2C-D09EBA2ED032}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2AB5F08B-41AB-44AA-A294-4852D9D1CE2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{2AB5F08B-41AB-44AA-A294-4852D9D1CE2F}"/>
   </bookViews>
   <sheets>
     <sheet name="IRF's mix" sheetId="2" r:id="rId1"/>
@@ -33791,7 +33791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472F1370-4AA6-4591-87BF-12E7ECDA1748}">
   <dimension ref="B3:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -39496,7 +39496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2D4466-5FF6-483E-8CC8-5D25C3FB3A6B}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="N25" sqref="N25:N39"/>
     </sheetView>
   </sheetViews>
